--- a/biology/Microbiologie/CLED/CLED.xlsx
+++ b/biology/Microbiologie/CLED/CLED.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le milieu CLED (pour Cystine Lactose Electrolyt Deficient = milieu enrichi en cystine et lactose et pauvre en ions) est un milieu de culture bactériologique généralement utilisé dans le cadre de l'examen cytobactériologique des urines (ECBU), qui permet la culture des germes urinaires, flore commensale comprise, ainsi que leur numération[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le milieu CLED (pour Cystine Lactose Electrolyt Deficient = milieu enrichi en cystine et lactose et pauvre en ions) est un milieu de culture bactériologique généralement utilisé dans le cadre de l'examen cytobactériologique des urines (ECBU), qui permet la culture des germes urinaires, flore commensale comprise, ainsi que leur numération.
 Cette numération est effectuée par réalisation d'un ensemencement standardisé (tant au niveau du volume de l'inoculum que de la technique d'ensemencement), et est déterminée par comparaison de la densité de culture avec des abaques fournies par le fabricant.
-La faible teneur en ions du milieu empêche l'envahissement par les Proteus[2].
+La faible teneur en ions du milieu empêche l'envahissement par les Proteus.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Composition et rôles des constituants</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Peptones 	4,0 g (Source d'azote )
 Extrait de viande 	3,0 g (source d'énergie, de carbone et ainsi que facteur de croissance)
@@ -551,7 +565,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">34,2 g par litre. Stérilisation classique.
 </t>
@@ -582,9 +598,11 @@
           <t>Lecture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La couleur des colonies permet de distinguer les bactéries capables de fermenter le lactose[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La couleur des colonies permet de distinguer les bactéries capables de fermenter le lactose.
 Colonies jaunes : lactose +
 Colonies bleues ou vertes : lactose -</t>
         </is>
